--- a/Excel/镇魂街/arena.竞技场.xlsx
+++ b/Excel/镇魂街/arena.竞技场.xlsx
@@ -7623,7 +7623,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2167</v>
@@ -7715,7 +7715,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2167</v>
@@ -7727,7 +7727,7 @@
         <v>2168</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7735,7 +7735,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2167</v>
@@ -7751,7 +7751,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2167</v>
@@ -7763,7 +7763,7 @@
         <v>2169</v>
       </c>
       <c r="F7" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7771,7 +7771,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2167</v>
@@ -7787,7 +7787,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2167</v>
@@ -7799,7 +7799,7 @@
         <v>2171</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7807,7 +7807,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2167</v>
@@ -7823,7 +7823,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2167</v>
@@ -7839,7 +7839,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2167</v>
@@ -7851,7 +7851,7 @@
         <v>2170</v>
       </c>
       <c r="F12" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7859,7 +7859,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2167</v>
@@ -7875,7 +7875,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2167</v>
@@ -7895,7 +7895,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2167</v>
@@ -7911,7 +7911,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2167</v>
@@ -7931,7 +7931,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2167</v>
@@ -7947,7 +7947,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2167</v>
@@ -7963,7 +7963,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2167</v>
@@ -7983,7 +7983,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2167</v>
@@ -7999,7 +7999,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2167</v>
@@ -8015,7 +8015,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2167</v>
@@ -8027,7 +8027,7 @@
         <v>2172</v>
       </c>
       <c r="F22" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/arena.竞技场.xlsx
+++ b/Excel/镇魂街/arena.竞技场.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="2184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="2181">
   <si>
     <t>sheet名</t>
   </si>
@@ -6769,69 +6769,58 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>荣誉点</t>
+  </si>
+  <si>
     <t>钻石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>战斗夏玲碎片</t>
-  </si>
-  <si>
-    <t>曹玄亮碎片</t>
+    <t>item_id:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>北落师门碎片</t>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>常服曹焱兵碎片</t>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项羽碎片</t>
+    <t>item_id:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>许褚碎片</t>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>低级专属强化石</t>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>许褚碎片</t>
+    <t>Award[3].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>荣誉点</t>
+    <t>Award[3].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>item_id:e&lt;&gt;</t>
+    <t>技能经验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;&gt;</t>
+    <t>寄灵人抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
+    <t>守护灵抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7620,10 +7609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7632,9 +7621,11 @@
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7653,8 +7644,14 @@
       <c r="F1" s="4" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7662,19 +7659,25 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>2181</v>
+        <v>2172</v>
       </c>
       <c r="D2" t="s">
-        <v>2182</v>
+        <v>2173</v>
       </c>
       <c r="E2" t="s">
-        <v>2178</v>
+        <v>2169</v>
       </c>
       <c r="F2" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>2174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -7693,85 +7696,91 @@
       <c r="F3" s="1" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D5" s="2">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2168</v>
-      </c>
-      <c r="F5" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D6" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D7" s="2">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2167</v>
@@ -7779,255 +7788,367 @@
       <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>1700</v>
+        <v>1550</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D9" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2171</v>
+        <v>2177</v>
       </c>
       <c r="F9" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D10" s="2">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D11" s="2">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D12" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2170</v>
+        <v>2177</v>
       </c>
       <c r="F12" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D13" s="2">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F13" s="2">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D14" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="F14" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>2300</v>
+        <v>1850</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D15" s="2">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D16" s="2">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F16" s="2">
         <v>50</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>2173</v>
-      </c>
-      <c r="F16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>2500</v>
+        <v>1950</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D17" s="2">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F17" s="2">
+        <v>55</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F18" s="2">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H18" s="2">
         <v>50</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D19" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="F19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D20" s="2">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F20" s="2">
+        <v>60</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H20" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D21" s="2">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F21" s="2">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H21" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="D22" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2172</v>
+        <v>2177</v>
       </c>
       <c r="F22" s="2">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H22" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D23" s="2">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F23" s="2">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H23" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8040,8 +8161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8086,16 +8207,16 @@
         <v>2128</v>
       </c>
       <c r="D2" t="s">
-        <v>2178</v>
+        <v>2169</v>
       </c>
       <c r="E2" t="s">
-        <v>2179</v>
+        <v>2170</v>
       </c>
       <c r="F2" t="s">
-        <v>2178</v>
+        <v>2169</v>
       </c>
       <c r="G2" t="s">
-        <v>2180</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -8132,13 +8253,17 @@
         <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="E4" s="2">
         <v>200</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -8151,13 +8276,17 @@
         <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="E5" s="2">
         <v>300</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -8170,13 +8299,17 @@
         <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="E6" s="2">
         <v>500</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -8189,16 +8322,16 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="E7" s="2">
         <v>200</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>2177</v>
+        <v>2168</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -8212,16 +8345,16 @@
         <v>300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="E8" s="2">
         <v>300</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -8235,16 +8368,16 @@
         <v>400</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="E9" s="2">
         <v>500</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="G9" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8258,7 +8391,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
